--- a/medicine/Enfance/François_de_France_(1497)/François_de_France_(1497).xlsx
+++ b/medicine/Enfance/François_de_France_(1497)/François_de_France_(1497).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_de_France_(1497)</t>
+          <t>François_de_France_(1497)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">François de France, né en juillet 1497 et mort à la fin de 1497, est un prince français. Il est le cinquième enfant et quatrième fils du roi de France Charles VIII et de son épouse la reine Anne de Bretagne. Mort précocement, il est brièvement l'héritier de la couronne de France et titré dauphin de Viennois.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_de_France_(1497)</t>
+          <t>François_de_France_(1497)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Ascendance</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Ascendance de François de France
